--- a/project/files/nasatlx_results/nasatlx_results.xlsx
+++ b/project/files/nasatlx_results/nasatlx_results.xlsx
@@ -11,6 +11,7 @@
     <sheet name="Descriptive_Stats" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="Normality_Tests" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="Friedman_Test" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="PostHoc_Tests" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -428,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:C41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,91 +457,91 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>taninaka</t>
+          <t>takiguchi</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>15cm</t>
+          <t>0cm</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>67</v>
+        <v>55.33333333333334</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>takiguchi</t>
+          <t>ishibashi</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0cm</t>
+          <t>60cm</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>55.33333333333334</v>
+        <v>78.99999999999999</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ishibashi</t>
+          <t>nakayama</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>60cm</t>
+          <t>45cm</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>78.99999999999999</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>nakayama</t>
+          <t>hayashida</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>45cm</t>
+          <t>0cm</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>hayashida</t>
+          <t>mitsumaru</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>0cm</t>
+          <t>30cm</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>9.333333333333332</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>taninaka</t>
+          <t>shiojiri</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>60cm</t>
+          <t>45cm</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>66</v>
+        <v>58.33333333333333</v>
       </c>
     </row>
     <row r="8">
@@ -561,46 +562,46 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>taninaka</t>
+          <t>nakayama</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>0cm</t>
+          <t>15cm</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>68</v>
+        <v>23.33333333333333</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>nakayama</t>
+          <t>hayashida</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>15cm</t>
+          <t>60cm</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>23.33333333333333</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>hayashida</t>
+          <t>mitsumaru</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>60cm</t>
+          <t>0cm</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>8.666666666666666</v>
       </c>
     </row>
     <row r="12">
@@ -636,7 +637,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>hayashida</t>
+          <t>shiojiri</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -645,73 +646,73 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>taninaka</t>
+          <t>hayashida</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>45cm</t>
+          <t>15cm</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>64.66666666666666</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>ishibashi</t>
+          <t>mitsumaru</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>30cm</t>
+          <t>60cm</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>57</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>takiguchi</t>
+          <t>ishibashi</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>15cm</t>
+          <t>30cm</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>54.66666666666666</v>
+        <v>57</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>nakayama</t>
+          <t>takiguchi</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>30cm</t>
+          <t>15cm</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>33</v>
+        <v>54.66666666666666</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>taninaka</t>
+          <t>nakayama</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -720,28 +721,28 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>67.33333333333334</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>hayashida</t>
+          <t>hatamoto</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>45cm</t>
+          <t>0cm</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>takiguchi</t>
+          <t>hayashida</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -750,28 +751,28 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>honda</t>
+          <t>mitsumaru</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>30cm</t>
+          <t>15cm</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>63.66666666666666</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>ishibashi</t>
+          <t>takiguchi</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -780,22 +781,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>72.33333333333333</v>
+        <v>70</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>honda</t>
+          <t>hatamoto</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>15cm</t>
+          <t>30cm</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>66</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25">
@@ -806,86 +807,86 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>45cm</t>
+          <t>30cm</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>70</v>
+        <v>63.66666666666666</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>takiguchi</t>
+          <t>ishibashi</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>30cm</t>
+          <t>45cm</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>70.66666666666666</v>
+        <v>72.33333333333333</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>hayashida</t>
+          <t>hatamoto</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>30cm</t>
+          <t>15cm</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>6.666666666666666</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>honda</t>
+          <t>hatamoto</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>60cm</t>
+          <t>45cm</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>71.66666666666666</v>
+        <v>28.33333333333334</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>ishibashi</t>
+          <t>hatamoto</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>15cm</t>
+          <t>60cm</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>61.33333333333334</v>
+        <v>40.66666666666666</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>nakayama</t>
+          <t>shiojiri</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>0cm</t>
+          <t>60cm</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>24.33333333333333</v>
+        <v>77</v>
       </c>
     </row>
     <row r="31">
@@ -896,10 +897,160 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
+          <t>15cm</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>honda</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>45cm</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>takiguchi</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>30cm</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>70.66666666666666</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>shiojiri</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>30cm</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>hayashida</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>30cm</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>shiojiri</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
           <t>0cm</t>
         </is>
       </c>
-      <c r="C31" t="n">
+      <c r="C36" t="n">
+        <v>49.33333333333334</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>honda</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>60cm</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>71.66666666666666</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>ishibashi</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>15cm</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>61.33333333333334</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>nakayama</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>0cm</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>24.33333333333333</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>mitsumaru</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>45cm</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>9.999999999999998</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>honda</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>0cm</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
         <v>64.33333333333334</v>
       </c>
     </row>
@@ -976,28 +1127,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C2" t="n">
-        <v>59.83333333333334</v>
+        <v>36.83333333333334</v>
       </c>
       <c r="D2" t="n">
-        <v>46.55555555555556</v>
+        <v>34.91666666666667</v>
       </c>
       <c r="E2" t="n">
-        <v>28.09244000056217</v>
+        <v>27.20804619552418</v>
       </c>
       <c r="F2" t="n">
-        <v>32.08333333333334</v>
+        <v>9.666666666666666</v>
       </c>
       <c r="G2" t="n">
-        <v>66.58333333333333</v>
+        <v>57.58333333333334</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>68</v>
+        <v>67.33333333333333</v>
       </c>
     </row>
     <row r="3">
@@ -1007,28 +1158,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C3" t="n">
-        <v>58</v>
+        <v>35.66666666666666</v>
       </c>
       <c r="D3" t="n">
-        <v>45.38888888888889</v>
+        <v>34</v>
       </c>
       <c r="E3" t="n">
-        <v>27.49094126893169</v>
+        <v>26.44431105742003</v>
       </c>
       <c r="F3" t="n">
-        <v>31.16666666666666</v>
+        <v>10.66666666666666</v>
       </c>
       <c r="G3" t="n">
-        <v>64.83333333333333</v>
+        <v>56.33333333333333</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4">
@@ -1038,22 +1189,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C4" t="n">
-        <v>60.33333333333333</v>
+        <v>45</v>
       </c>
       <c r="D4" t="n">
-        <v>48.61111111111111</v>
+        <v>39.83333333333333</v>
       </c>
       <c r="E4" t="n">
-        <v>27.35236464826856</v>
+        <v>28.01983424489001</v>
       </c>
       <c r="F4" t="n">
-        <v>39</v>
+        <v>16.58333333333333</v>
       </c>
       <c r="G4" t="n">
-        <v>66.41666666666667</v>
+        <v>64.25</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -1069,19 +1220,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C5" t="n">
-        <v>67.33333333333333</v>
+        <v>43.33333333333333</v>
       </c>
       <c r="D5" t="n">
-        <v>49.33333333333334</v>
+        <v>41</v>
       </c>
       <c r="E5" t="n">
-        <v>31.53481321404083</v>
+        <v>29.88230882901087</v>
       </c>
       <c r="F5" t="n">
-        <v>30.41666666666666</v>
+        <v>16.75</v>
       </c>
       <c r="G5" t="n">
         <v>70</v>
@@ -1100,22 +1251,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C6" t="n">
-        <v>68.83333333333333</v>
+        <v>56.16666666666666</v>
       </c>
       <c r="D6" t="n">
-        <v>51.83333333333334</v>
+        <v>49.08333333333333</v>
       </c>
       <c r="E6" t="n">
-        <v>36.14092786117516</v>
+        <v>32.74225947541732</v>
       </c>
       <c r="F6" t="n">
-        <v>23</v>
+        <v>24.66666666666666</v>
       </c>
       <c r="G6" t="n">
-        <v>77.16666666666666</v>
+        <v>77.5</v>
       </c>
       <c r="H6" t="n">
         <v>3</v>
@@ -1177,13 +1328,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8114909600281343</v>
+        <v>0.884439173548788</v>
       </c>
       <c r="D2" t="n">
-        <v>0.07438017218416415</v>
+        <v>0.2075474643814062</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -1198,13 +1349,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8193983418550792</v>
+        <v>0.8922924195048912</v>
       </c>
       <c r="D3" t="n">
-        <v>0.08720030320786426</v>
+        <v>0.2457676619276379</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -1219,13 +1370,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8282663272795827</v>
+        <v>0.8879964952328958</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1039083271290806</v>
+        <v>0.2241688917642304</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -1240,17 +1391,17 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C5" t="n">
-        <v>0.755619885925317</v>
+        <v>0.8611983463957062</v>
       </c>
       <c r="D5" t="n">
-        <v>0.02259737497477815</v>
+        <v>0.1234192486764611</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
@@ -1261,17 +1412,17 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7820625537809056</v>
+        <v>0.8620480235678561</v>
       </c>
       <c r="D6" t="n">
-        <v>0.04028747966023588</v>
+        <v>0.1258423222191279</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
@@ -1328,16 +1479,542 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1212121212121212</v>
+        <v>0.3683333333333333</v>
       </c>
       <c r="C2" t="n">
         <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>2.909090909090909</v>
+        <v>11.78666666666667</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5731522668595148</v>
+        <v>0.01901021956906033</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Contrast</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Paired</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Parametric</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>W-val</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>alternative</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>p-unc</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>p-corr</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>p-adjust</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>CLES</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>distance</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>0cm</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>15cm</t>
+        </is>
+      </c>
+      <c r="D2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>9</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>two-sided</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>0.46875</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.9765625</v>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>holm</t>
+        </is>
+      </c>
+      <c r="K2" t="n">
+        <v>0.5390625</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>distance</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>0cm</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>30cm</t>
+        </is>
+      </c>
+      <c r="D3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>7</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>two-sided</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>0.296875</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.9765625</v>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>holm</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
+        <v>0.4296875</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>distance</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>0cm</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>45cm</t>
+        </is>
+      </c>
+      <c r="D4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>3</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>two-sided</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>0.078125</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.546875</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>holm</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
+        <v>0.3828125</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>distance</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>0cm</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>60cm</t>
+        </is>
+      </c>
+      <c r="D5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>4</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>two-sided</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>0.0546875</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.4921875</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>holm</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
+        <v>0.3359375</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>distance</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>15cm</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>30cm</t>
+        </is>
+      </c>
+      <c r="D6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E6" t="b">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>6</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>two-sided</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>0.21875</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.9765625</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>holm</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
+        <v>0.40625</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>distance</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>15cm</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>45cm</t>
+        </is>
+      </c>
+      <c r="D7" t="b">
+        <v>1</v>
+      </c>
+      <c r="E7" t="b">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>4</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>two-sided</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>0.109375</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.65625</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>holm</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
+        <v>0.3828125</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>distance</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>15cm</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>60cm</t>
+        </is>
+      </c>
+      <c r="D8" t="b">
+        <v>1</v>
+      </c>
+      <c r="E8" t="b">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>3</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>two-sided</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>0.0390625</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.390625</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>holm</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
+        <v>0.328125</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>distance</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>30cm</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>45cm</t>
+        </is>
+      </c>
+      <c r="D9" t="b">
+        <v>1</v>
+      </c>
+      <c r="E9" t="b">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>11</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>two-sided</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>0.6875</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.9765625</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>holm</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
+        <v>0.453125</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>distance</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>30cm</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>60cm</t>
+        </is>
+      </c>
+      <c r="D10" t="b">
+        <v>1</v>
+      </c>
+      <c r="E10" t="b">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>8</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>two-sided</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>0.1953125</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.9765625</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>holm</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
+        <v>0.359375</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>distance</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>45cm</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>60cm</t>
+        </is>
+      </c>
+      <c r="D11" t="b">
+        <v>1</v>
+      </c>
+      <c r="E11" t="b">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>4</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>two-sided</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>0.0546875</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.4921875</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>holm</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
+        <v>0.359375</v>
       </c>
     </row>
   </sheetData>
